--- a/Data/anotated/manual_anotation.xlsx
+++ b/Data/anotated/manual_anotation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\Deepanshu Bhatt\rerprCheck-NLP-base-Biomedical-Research-Checklist-\Data\anotated\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513091C-875F-4A7C-88D2-6DB2ECAE2E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>papers</t>
+  </si>
+  <si>
+    <t>reproducible</t>
+  </si>
+  <si>
+    <t>ijms-26-07050</t>
+  </si>
+  <si>
+    <t>ijms-26-07429</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>review_article</t>
+  </si>
+  <si>
+    <t>ao5c02533</t>
+  </si>
+  <si>
+    <t>ijms-26-07223</t>
+  </si>
+  <si>
+    <t>cells-14-01207</t>
+  </si>
+  <si>
+    <t>ijms-26-07381</t>
+  </si>
+  <si>
+    <t>ijn-20-9517</t>
+  </si>
+  <si>
+    <t>fnut-12-1627949</t>
+  </si>
+  <si>
+    <t>molecules-30-03177</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +389,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/anotated/manual_anotation.xlsx
+++ b/Data/anotated/manual_anotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\Deepanshu Bhatt\rerprCheck-NLP-base-Biomedical-Research-Checklist-\Data\anotated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513091C-875F-4A7C-88D2-6DB2ECAE2E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E61F1CC-406A-4E06-B09C-47A8E0F2D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>papers</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>molecules-30-03177</t>
+  </si>
+  <si>
+    <t>40729_2025_Article_639</t>
+  </si>
+  <si>
+    <t>ijms-26-07322</t>
+  </si>
+  <si>
+    <t>nanomaterials-15-01201</t>
+  </si>
+  <si>
+    <t>BMC-39-e70170</t>
+  </si>
+  <si>
+    <t>research_paper</t>
+  </si>
+  <si>
+    <t>fimmu-16-1588081</t>
   </si>
 </sst>
 </file>
@@ -390,17 +408,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -419,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -430,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -441,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -452,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -463,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -474,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -485,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -496,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -507,9 +525,64 @@
         <v>12</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>
